--- a/SBD.xlsx
+++ b/SBD.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+  <si>
+    <t xml:space="preserve">SBD</t>
+  </si>
   <si>
     <t xml:space="preserve">1019743</t>
   </si>
@@ -401,13 +404,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -434,501 +445,505 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
